--- a/stl.xlsx
+++ b/stl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel Švejda\Desktop\MemDim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CFC4D5-E537-4CCB-B323-B995F47C60D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B912242B-F797-4E18-B25E-8B1AD5D34A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B44795F9-18FA-4BC5-BFB7-07E0F2C6C9D6}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B44795F9-18FA-4BC5-BFB7-07E0F2C6C9D6}"/>
   </bookViews>
   <sheets>
     <sheet name="IPE" sheetId="1" r:id="rId1"/>
@@ -608,6 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -617,7 +618,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B960B6AD-8952-49CA-A421-D28029190566}">
   <dimension ref="B1:AK12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,48 +976,48 @@
   <sheetData>
     <row r="1" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="30" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="30" t="s">
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="30" t="s">
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="32"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="33"/>
     </row>
     <row r="3" spans="2:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D3" s="17" t="s">
@@ -1371,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF3EDFD-02CC-4193-B003-70D4ED6E4CC6}">
   <dimension ref="B1:AK12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,48 +1393,48 @@
   <sheetData>
     <row r="1" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="30" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="30" t="s">
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="30" t="s">
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="32"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="33"/>
     </row>
     <row r="3" spans="2:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D3" s="17" t="s">
